--- a/excel/policy/old_car_city.xlsx
+++ b/excel/policy/old_car_city.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62AD7F3-2372-4DB8-BC10-C4E8753001BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="-19080" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="8745" yWindow="-19080" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位 万辆" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="368">
   <si>
     <t>北京</t>
   </si>
@@ -1038,21 +1034,6 @@
   </si>
   <si>
     <t>省份</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>2014年</t>
-  </si>
-  <si>
-    <t>2015年</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
   </si>
   <si>
     <t>河北</t>
@@ -1153,7 +1134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,8 +1236,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,53 +1514,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:I1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="8.83203125" style="1"/>
+    <col min="3" max="7" width="8.875" style="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>341</v>
+      <c r="C1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2017</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1589,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1631,12 +1612,12 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D4" s="1">
         <v>3.5</v>
@@ -1648,12 +1629,12 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1">
         <v>3.8</v>
@@ -1671,12 +1652,12 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1">
         <v>3.3</v>
@@ -1697,12 +1678,12 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1">
         <v>6.2728999999999999</v>
@@ -1720,12 +1701,12 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1">
         <v>8.6999999999999993</v>
@@ -1743,12 +1724,12 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1">
         <v>4.5999999999999996</v>
@@ -1769,12 +1750,12 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1786,12 +1767,12 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1">
         <v>2.7797999999999998</v>
@@ -1815,12 +1796,12 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1">
         <v>6.5</v>
@@ -1838,12 +1819,12 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1">
         <v>4.5</v>
@@ -1858,12 +1839,12 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1">
         <v>9.8000000000000007</v>
@@ -1878,7 +1859,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1904,12 +1885,12 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D16" s="1">
         <v>0.71050000000000002</v>
@@ -1924,12 +1905,12 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D17" s="1">
         <v>1.2687999999999999</v>
@@ -1947,12 +1928,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D18" s="1">
         <v>3.8</v>
@@ -1967,12 +1948,12 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1">
         <v>1.1228</v>
@@ -1996,12 +1977,12 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D20" s="1">
         <v>6.5</v>
@@ -2022,12 +2003,12 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C21" s="1">
         <v>0.2306</v>
@@ -2045,12 +2026,12 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D22" s="1">
         <v>2.5</v>
@@ -2071,12 +2052,12 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D23" s="1">
         <v>3.4</v>
@@ -2094,12 +2075,12 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C24" s="1">
         <v>0.8</v>
@@ -2117,12 +2098,12 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D25" s="1">
         <v>1.8043</v>
@@ -2134,12 +2115,12 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C26" s="1">
         <v>3.117</v>
@@ -2163,12 +2144,12 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C27" s="1">
         <v>1.7982</v>
@@ -2180,12 +2161,12 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D28" s="1">
         <v>7.9</v>
@@ -2203,12 +2184,12 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C29" s="1">
         <v>0.6</v>
@@ -2232,12 +2213,12 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D30" s="1">
         <v>1.21</v>
@@ -2252,12 +2233,12 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C31" s="1">
         <v>0.29020000000000001</v>
@@ -2272,12 +2253,12 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E32" s="1">
         <v>3.8</v>
@@ -2292,12 +2273,12 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1">
         <v>0.99109999999999998</v>
@@ -2318,12 +2299,12 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D34" s="1">
         <v>1.8879999999999999</v>
@@ -2335,12 +2316,12 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C35" s="1">
         <v>0.4224</v>
@@ -2352,12 +2333,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F36" s="1">
         <v>3.1175000000000002</v>
@@ -2372,12 +2353,12 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1">
         <v>0.59909999999999997</v>
@@ -2395,12 +2376,12 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C38" s="1">
         <v>0.63180000000000003</v>
@@ -2418,12 +2399,12 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1">
         <v>1.1731</v>
@@ -2444,12 +2425,12 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C40" s="1">
         <v>0.7</v>
@@ -2470,12 +2451,12 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C41" s="1">
         <v>2.9883000000000002</v>
@@ -2493,12 +2474,12 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1">
         <v>2.6463999999999999</v>
@@ -2516,12 +2497,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D43" s="1">
         <v>4.1634000000000002</v>
@@ -2536,12 +2517,12 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1">
         <v>0.75739999999999996</v>
@@ -2559,12 +2540,12 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C45" s="1">
         <v>2.2797999999999998</v>
@@ -2585,12 +2566,12 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D46" s="1">
         <v>8.6999999999999993</v>
@@ -2608,12 +2589,12 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D47" s="1">
         <v>3.58</v>
@@ -2625,12 +2606,12 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C48" s="1">
         <v>4.9000000000000004</v>
@@ -2654,12 +2635,12 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H49">
         <v>23.359090999999999</v>
@@ -2668,12 +2649,12 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E50" s="1">
         <v>1.48</v>
@@ -2688,12 +2669,12 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E51" s="1">
         <v>1.1492</v>
@@ -2708,12 +2689,12 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G52" s="1">
         <v>1.0387</v>
@@ -2725,12 +2706,12 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H53">
         <v>23.749684999999999</v>
@@ -2739,12 +2720,12 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E54" s="1">
         <v>0.46460000000000001</v>
@@ -2759,12 +2740,12 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E55" s="1">
         <v>0.5988</v>
@@ -2779,12 +2760,12 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E56" s="1">
         <v>1.87</v>
@@ -2802,12 +2783,12 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G57" s="1">
         <v>0.38</v>
@@ -2819,12 +2800,12 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H58">
         <v>23.555741000000001</v>
@@ -2833,12 +2814,12 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H59">
         <v>24.81588</v>
@@ -2847,12 +2828,12 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E60" s="1">
         <v>1.1497999999999999</v>
@@ -2867,12 +2848,12 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C61" s="1">
         <v>0.52</v>
@@ -2890,12 +2871,12 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E62" s="1">
         <v>2.8549000000000002</v>
@@ -2910,12 +2891,12 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H63">
         <v>34.778326</v>
@@ -2924,12 +2905,12 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E64" s="1">
         <v>2.2999999999999998</v>
@@ -2941,12 +2922,12 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G65" s="1">
         <v>0.29339999999999999</v>
@@ -2958,12 +2939,12 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H66">
         <v>34.802885000000003</v>
@@ -2972,12 +2953,12 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E67" s="1">
         <v>0.88929999999999998</v>
@@ -2992,12 +2973,12 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H68">
         <v>32.996561</v>
@@ -3006,12 +2987,12 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H69">
         <v>32.153013999999999</v>
@@ -3020,12 +3001,12 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G70" s="1">
         <v>0.40250000000000002</v>
@@ -3037,12 +3018,12 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G71" s="1">
         <v>0.61339999999999995</v>
@@ -3054,12 +3035,12 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F72" s="1">
         <v>0.41199999999999998</v>
@@ -3071,12 +3052,12 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H73">
         <v>35.767592999999998</v>
@@ -3085,12 +3066,12 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G74" s="1">
         <v>0.3362</v>
@@ -3102,12 +3083,12 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H75">
         <v>33.587710000000001</v>
@@ -3116,12 +3097,12 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G76" s="1">
         <v>0.29859999999999998</v>
@@ -3133,12 +3114,12 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H77">
         <v>33.017842000000002</v>
@@ -3147,12 +3128,12 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D78" s="1">
         <v>1.53</v>
@@ -3170,12 +3151,12 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H79">
         <v>42.261687999999999</v>
@@ -3184,12 +3165,12 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H80">
         <v>40.662928999999998</v>
@@ -3198,12 +3179,12 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E81" s="1">
         <v>1.3631</v>
@@ -3215,12 +3196,12 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G82" s="1">
         <v>0.1578</v>
@@ -3232,12 +3213,12 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H83">
         <v>43.939424000000002</v>
@@ -3246,12 +3227,12 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G84" s="1">
         <v>0.61399999999999999</v>
@@ -3263,12 +3244,12 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H85">
         <v>49.218446</v>
@@ -3277,12 +3258,12 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G86" s="1">
         <v>5.8000000000000003E-2</v>
@@ -3294,12 +3275,12 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H87">
         <v>43.657980000000002</v>
@@ -3308,12 +3289,12 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G88" s="1">
         <v>0.36049999999999999</v>
@@ -3325,12 +3306,12 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H89">
         <v>38.858277000000001</v>
@@ -3339,12 +3320,12 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C90" s="1">
         <v>3.6</v>
@@ -3362,12 +3343,12 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H91">
         <v>40.082470000000001</v>
@@ -3376,12 +3357,12 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H92">
         <v>36.201267000000001</v>
@@ -3390,12 +3371,12 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H93">
         <v>36.093743000000003</v>
@@ -3404,12 +3385,12 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G94" s="1">
         <v>0.2167</v>
@@ -3421,12 +3402,12 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F95" s="1">
         <v>1.1544000000000001</v>
@@ -3438,12 +3419,12 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H96">
         <v>39.337110000000003</v>
@@ -3452,12 +3433,12 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H97">
         <v>37.692841000000001</v>
@@ -3466,12 +3447,12 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H98">
         <v>35.032705999999997</v>
@@ -3480,12 +3461,12 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G99" s="1">
         <v>1.7950999999999999</v>
@@ -3497,12 +3478,12 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H100">
         <v>37.524498999999999</v>
@@ -3511,12 +3492,12 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D101" s="1">
         <v>5.5</v>
@@ -3528,12 +3509,12 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C102" s="1">
         <v>2.08</v>
@@ -3551,12 +3532,12 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H103">
         <v>36.819085000000001</v>
@@ -3565,12 +3546,12 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H104">
         <v>34.815994000000003</v>
@@ -3579,12 +3560,12 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H105">
         <v>37.470039999999997</v>
@@ -3593,12 +3574,12 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H106">
         <v>36.712649999999996</v>
@@ -3607,12 +3588,12 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H107">
         <v>35.420177000000002</v>
@@ -3621,12 +3602,12 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H108">
         <v>36.205857000000002</v>
@@ -3635,12 +3616,12 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E109" s="1">
         <v>1.0960000000000001</v>
@@ -3652,12 +3633,12 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H110">
         <v>37.454847999999998</v>
@@ -3666,12 +3647,12 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H111">
         <v>36.462758999999998</v>
@@ -3680,12 +3661,12 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H112">
         <v>37.388196999999998</v>
@@ -3694,12 +3675,12 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H113">
         <v>35.239407999999997</v>
@@ -3708,12 +3689,12 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E114" s="1">
         <v>1.85</v>
@@ -3725,12 +3706,12 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H115">
         <v>37.516430999999997</v>
@@ -3739,12 +3720,12 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H116">
         <v>37.441307999999999</v>
@@ -3753,12 +3734,12 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H117">
         <v>35.110672000000001</v>
@@ -3767,12 +3748,12 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D118" s="1">
         <v>3.22</v>
@@ -3790,12 +3771,12 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E119" s="1">
         <v>0.52029999999999998</v>
@@ -3807,12 +3788,12 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E120" s="1">
         <v>0.47060000000000002</v>
@@ -3824,12 +3805,12 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F121" s="1">
         <v>0.83599999999999997</v>
@@ -3844,12 +3825,12 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H122">
         <v>31.741451999999999</v>
@@ -3858,12 +3839,12 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H123">
         <v>32.261271000000001</v>
@@ -3872,12 +3853,12 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F124" s="1">
         <v>0.1973</v>
@@ -3889,12 +3870,12 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F125" s="1">
         <v>1.0609</v>
@@ -3909,12 +3890,12 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H126">
         <v>32.896062000000001</v>
@@ -3923,12 +3904,12 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H127">
         <v>33.652096</v>
@@ -3937,12 +3918,12 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H128">
         <v>32.921523000000001</v>
@@ -3951,12 +3932,12 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F129" s="1">
         <v>0.83550000000000002</v>
@@ -3971,12 +3952,12 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F130" s="1">
         <v>0.99709999999999999</v>
@@ -3988,12 +3969,12 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F131" s="1">
         <v>0.42699999999999999</v>
@@ -4008,12 +3989,12 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G132" s="1">
         <v>0.39539999999999997</v>
@@ -4025,12 +4006,12 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G133" s="1">
         <v>8.8599999999999998E-2</v>
@@ -4042,12 +4023,12 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E134" s="1">
         <v>2.0232999999999999</v>
@@ -4059,12 +4040,12 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G135" s="1">
         <v>0.35420000000000001</v>
@@ -4076,12 +4057,12 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H136">
         <v>27.823578999999999</v>
@@ -4090,12 +4071,12 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G137" s="1">
         <v>0.15409999999999999</v>
@@ -4107,12 +4088,12 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H138">
         <v>27.954892999999998</v>
@@ -4121,12 +4102,12 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G139" s="1">
         <v>0.70630000000000004</v>
@@ -4138,12 +4119,12 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F140" s="1">
         <v>0.86050000000000004</v>
@@ -4158,12 +4139,12 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H141">
         <v>27.628392999999999</v>
@@ -4172,12 +4153,12 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F142" s="1">
         <v>1.2</v>
@@ -4189,12 +4170,12 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H143">
         <v>27.820855999999999</v>
@@ -4203,12 +4184,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G144" s="1">
         <v>0.10929999999999999</v>
@@ -4220,12 +4201,12 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H145">
         <v>26.080428999999999</v>
@@ -4234,12 +4215,12 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D146" s="1">
         <v>1.7</v>
@@ -4254,12 +4235,12 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G147" s="1">
         <v>1.0443</v>
@@ -4271,12 +4252,12 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H148">
         <v>25.081219999999998</v>
@@ -4285,12 +4266,12 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G149" s="1">
         <v>0.28820000000000001</v>
@@ -4302,12 +4283,12 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G150" s="1">
         <v>0.30220000000000002</v>
@@ -4319,12 +4300,12 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F151" s="1">
         <v>1.0490999999999999</v>
@@ -4336,12 +4317,12 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G152" s="1">
         <v>0.2132</v>
@@ -4353,12 +4334,12 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F153" s="1">
         <v>0.59330000000000005</v>
@@ -4373,12 +4354,12 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D154" s="1">
         <v>6</v>
@@ -4399,12 +4380,12 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F155" s="1">
         <v>1.1700999999999999</v>
@@ -4416,12 +4397,12 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F156" s="1">
         <v>0.72340000000000004</v>
@@ -4436,12 +4417,12 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F157" s="1">
         <v>0.25119999999999998</v>
@@ -4456,12 +4437,12 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F158" s="1">
         <v>8.1500000000000003E-2</v>
@@ -4473,12 +4454,12 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F159" s="1">
         <v>0.2994</v>
@@ -4493,12 +4474,12 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F160" s="1">
         <v>0.42780000000000001</v>
@@ -4510,12 +4491,12 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F161" s="1">
         <v>0.34699999999999998</v>
@@ -4527,12 +4508,12 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F162" s="1">
         <v>0.33489999999999998</v>
@@ -4547,12 +4528,12 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F163" s="1">
         <v>1.071</v>
@@ -4567,12 +4548,12 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F164" s="1">
         <v>0.65900000000000003</v>
@@ -4587,12 +4568,12 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F165" s="1">
         <v>0.3453</v>
@@ -4607,12 +4588,12 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F166" s="1">
         <v>0.4153</v>
@@ -4624,12 +4605,12 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C167" s="1">
         <v>3.1</v>
@@ -4650,12 +4631,12 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E168" s="1">
         <v>0.77449999999999997</v>
@@ -4670,12 +4651,12 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E169" s="1">
         <v>0.8</v>
@@ -4690,12 +4671,12 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E170" s="1">
         <v>0.77800000000000002</v>
@@ -4710,12 +4691,12 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F171" s="1">
         <v>0.36049999999999999</v>
@@ -4727,12 +4708,12 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E172" s="1">
         <v>0.79820000000000002</v>
@@ -4744,12 +4725,12 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H173">
         <v>26.899574999999999</v>
@@ -4758,12 +4739,12 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G174" s="1">
         <v>1.1825000000000001</v>
@@ -4775,12 +4756,12 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G175" s="1">
         <v>0.69469999999999998</v>
@@ -4792,12 +4773,12 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H176">
         <v>25.776682999999998</v>
@@ -4806,12 +4787,12 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G177" s="1">
         <v>0.86009999999999998</v>
@@ -4823,12 +4804,12 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H178">
         <v>28.317367999999998</v>
@@ -4837,12 +4818,12 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G179" s="1">
         <v>0.82550000000000001</v>
@@ -4854,12 +4835,12 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H180">
         <v>27.575161000000001</v>
@@ -4868,12 +4849,12 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D181" s="1">
         <v>2.6034999999999999</v>
@@ -4888,12 +4869,12 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E182" s="1">
         <v>0.96819999999999995</v>
@@ -4908,12 +4889,12 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E183" s="1">
         <v>8.7599999999999997E-2</v>
@@ -4931,12 +4912,12 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G184" s="1">
         <v>1.0602</v>
@@ -4948,12 +4929,12 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H185">
         <v>22.659831000000001</v>
@@ -4962,12 +4943,12 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H186">
         <v>23.908187000000002</v>
@@ -4976,12 +4957,12 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H187">
         <v>24.40945</v>
@@ -4990,12 +4971,12 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H188">
         <v>24.698912</v>
@@ -5004,12 +4985,12 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H189">
         <v>23.756546</v>
@@ -5018,12 +4999,12 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H190">
         <v>22.383116999999999</v>
@@ -5032,12 +5013,12 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H191">
         <v>23.482745999999999</v>
@@ -5046,12 +5027,12 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H192">
         <v>21.693004999999999</v>
@@ -5060,12 +5041,12 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H193">
         <v>21.986592999999999</v>
@@ -5074,12 +5055,12 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G194" s="1">
         <v>0.58499999999999996</v>
@@ -5091,12 +5072,12 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D195" s="1">
         <v>1.18</v>
@@ -5114,12 +5095,12 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E196" s="1">
         <v>0.39579999999999999</v>
@@ -5134,12 +5115,12 @@
         <v>109.51855999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D197" s="1">
         <v>3.9</v>
@@ -5160,12 +5141,12 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E198" s="1">
         <v>1.4</v>
@@ -5180,12 +5161,12 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E199" s="1">
         <v>2.7583000000000002</v>
@@ -5203,12 +5184,12 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E200" s="1">
         <v>0.85</v>
@@ -5223,12 +5204,12 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G201" s="1">
         <v>0.3619</v>
@@ -5240,12 +5221,12 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G202" s="1">
         <v>0.11609999999999999</v>
@@ -5257,12 +5238,12 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G203" s="1">
         <v>0.15629999999999999</v>
@@ -5274,12 +5255,12 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G204" s="1">
         <v>0.1724</v>
@@ -5291,12 +5272,12 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H205">
         <v>46.805691000000003</v>
@@ -5305,12 +5286,12 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G206" s="1">
         <v>0.1138</v>
@@ -5322,12 +5303,12 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G207" s="1">
         <v>0.20949999999999999</v>
@@ -5339,12 +5320,12 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H208">
         <v>46.660032000000001</v>
@@ -5353,12 +5334,12 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G209" s="1">
         <v>9.7500000000000003E-2</v>
@@ -5370,7 +5351,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -5393,7 +5374,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -5407,7 +5388,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>210</v>
       </c>
@@ -5424,7 +5405,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>211</v>
       </c>
@@ -5441,7 +5422,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>212</v>
       </c>
@@ -5461,7 +5442,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>213</v>
       </c>
@@ -5478,7 +5459,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>214</v>
       </c>
@@ -5498,7 +5479,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -5512,7 +5493,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>216</v>
       </c>
@@ -5526,12 +5507,12 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E219" s="1">
         <v>3.4</v>
@@ -5546,12 +5527,12 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C220" s="1">
         <v>5.9</v>
@@ -5575,12 +5556,12 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F221" s="1">
         <v>3.5691999999999999</v>
@@ -5592,12 +5573,12 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F222" s="1">
         <v>1.0618000000000001</v>
@@ -5612,12 +5593,12 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G223" s="1">
         <v>0.34949999999999998</v>
@@ -5629,12 +5610,12 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F224" s="1">
         <v>1.4525999999999999</v>
@@ -5646,12 +5627,12 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F225" s="1">
         <v>1.63</v>
@@ -5666,12 +5647,12 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E226" s="1">
         <v>0.66639999999999999</v>
@@ -5689,12 +5670,12 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H227">
         <v>42.028022</v>
@@ -5703,12 +5684,12 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F228" s="1">
         <v>1.3</v>
@@ -5723,12 +5704,12 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F229" s="1">
         <v>0.84430000000000005</v>
@@ -5740,12 +5721,12 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G230" s="1">
         <v>0.56999999999999995</v>
@@ -5757,12 +5738,12 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F231" s="1">
         <v>0.95960000000000001</v>
@@ -5777,12 +5758,12 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H232">
         <v>41.579822</v>
@@ -5791,12 +5772,12 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C233" s="1">
         <v>0.36</v>
@@ -5814,12 +5795,12 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H234">
         <v>45.585673999999997</v>
@@ -5828,12 +5809,12 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H235">
         <v>42.946289</v>
@@ -5842,12 +5823,12 @@
         <v>89.180436999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H236">
         <v>41.732371999999998</v>
@@ -5856,12 +5837,12 @@
         <v>86.181489999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G237" s="1">
         <v>1.2</v>
@@ -5873,12 +5854,12 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H238">
         <v>43.922722</v>
@@ -5887,12 +5868,12 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H239">
         <v>42.868664000000003</v>
@@ -5901,12 +5882,12 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H240">
         <v>44.912196000000002</v>
@@ -5915,12 +5896,12 @@
         <v>82.072909999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G241" s="1">
         <v>0.44840000000000002</v>
@@ -5932,12 +5913,12 @@
         <v>80.266938999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H242">
         <v>39.720471000000003</v>
@@ -5946,12 +5927,12 @@
         <v>76.174312999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H243">
         <v>39.476098</v>
@@ -5960,12 +5941,12 @@
         <v>75.996395000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H244">
         <v>37.120446999999999</v>
@@ -5974,12 +5955,12 @@
         <v>79.928511</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H245">
         <v>46.750946999999996</v>
@@ -5988,12 +5969,12 @@
         <v>82.987233000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H246">
         <v>47.358299000000002</v>
@@ -6002,12 +5983,12 @@
         <v>87.835809999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H247">
         <v>44.172445000000003</v>
@@ -6016,12 +5997,12 @@
         <v>87.549932999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G248" s="1">
         <v>0.65059999999999996</v>
@@ -6033,12 +6014,12 @@
         <v>86.086889999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D249" s="1">
         <v>6.4</v>
@@ -6053,12 +6034,12 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G250" s="1">
         <v>0.11070000000000001</v>
@@ -6070,12 +6051,12 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E251" s="1">
         <v>0.13070000000000001</v>
@@ -6090,12 +6071,12 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G252" s="1">
         <v>0.2031</v>
@@ -6107,12 +6088,12 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H253">
         <v>35.607562000000001</v>
@@ -6121,12 +6102,12 @@
         <v>103.21639</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H254">
         <v>29.652888000000001</v>
@@ -6135,12 +6116,12 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G255" s="1">
         <v>0.1933</v>
@@ -6152,12 +6133,12 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H256">
         <v>34.587412</v>
@@ -6166,12 +6147,12 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G257" s="1">
         <v>0.55100000000000005</v>
@@ -6183,12 +6164,12 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H258">
         <v>35.549232000000003</v>
@@ -6197,12 +6178,12 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H259">
         <v>38.932065000000001</v>
@@ -6211,12 +6192,12 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G260" s="1">
         <v>0.39839999999999998</v>
@@ -6228,12 +6209,12 @@
         <v>107.649384</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H261">
         <v>35.586834000000003</v>
@@ -6242,12 +6223,12 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H262">
         <v>33.406621000000001</v>
@@ -6256,12 +6237,12 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C263" s="1">
         <v>0.47320000000000001</v>
@@ -6282,12 +6263,12 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H264">
         <v>36.634287</v>
@@ -6296,12 +6277,12 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H265">
         <v>36.954070999999999</v>
@@ -6310,12 +6291,12 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F266" s="1">
         <v>4.07E-2</v>
@@ -6330,12 +6311,12 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H267">
         <v>36.283273000000001</v>
@@ -6344,12 +6325,12 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H268">
         <v>34.477193</v>
@@ -6358,12 +6339,12 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H269">
         <v>36.615774000000002</v>
@@ -6372,12 +6353,12 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H270">
         <v>38.742356000000001</v>
@@ -6386,12 +6367,12 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D271" s="1">
         <v>0.97270000000000001</v>
@@ -6406,12 +6387,12 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H272">
         <v>38.989682999999999</v>
@@ -6420,12 +6401,12 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G273" s="1">
         <v>1.5347999999999999</v>
@@ -6437,12 +6418,12 @@
         <v>106.248575</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H274">
         <v>38.003712999999998</v>
@@ -6451,12 +6432,12 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G275" s="1">
         <v>0.17380000000000001</v>
@@ -6468,12 +6449,12 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C276" s="1">
         <v>5.62</v>
@@ -6491,12 +6472,12 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E277" s="1">
         <v>0.78590000000000004</v>
@@ -6511,12 +6492,12 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E278" s="1">
         <v>0.15110000000000001</v>
@@ -6528,12 +6509,12 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H279">
         <v>36.591112000000003</v>
@@ -6542,12 +6523,12 @@
         <v>109.496579</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E280" s="1">
         <v>0.3579</v>
@@ -6559,12 +6540,12 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E281" s="1">
         <v>1.5817000000000001</v>
@@ -6579,12 +6560,12 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F282" s="1">
         <v>1.2727999999999999</v>
@@ -6596,12 +6577,12 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G283" s="1">
         <v>0.25569999999999998</v>
@@ -6613,12 +6594,12 @@
         <v>109.741618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H284">
         <v>32.690513000000003</v>
@@ -6627,12 +6608,12 @@
         <v>109.03560400000001</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G285" s="1">
         <v>0.31059999999999999</v>
@@ -6644,12 +6625,12 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E286" s="1">
         <v>9.6</v>
@@ -6664,12 +6645,12 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F287" s="1">
         <v>1.1275999999999999</v>
@@ -6684,12 +6665,12 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G288" s="1">
         <v>0.3609</v>
@@ -6701,12 +6682,12 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H289">
         <v>26.588034</v>
@@ -6715,12 +6696,12 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E290" s="1">
         <v>1.1349</v>
@@ -6732,12 +6713,12 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F291" s="1">
         <v>0.67330000000000001</v>
@@ -6749,12 +6730,12 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E292" s="1">
         <v>0.56999999999999995</v>
@@ -6769,12 +6750,12 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G293" s="1">
         <v>1.5227999999999999</v>
@@ -6786,12 +6767,12 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H294">
         <v>29.585885999999999</v>
@@ -6800,12 +6781,12 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G295" s="1">
         <v>3.95</v>
@@ -6817,12 +6798,12 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G296" s="1">
         <v>0.9</v>
@@ -6834,12 +6815,12 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G297" s="1">
         <v>1.8</v>
@@ -6851,12 +6832,12 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H298">
         <v>31.214307000000002</v>
@@ -6865,12 +6846,12 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H299">
         <v>30.134955999999999</v>
@@ -6879,12 +6860,12 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F300" s="1">
         <v>0.53269999999999995</v>
@@ -6896,12 +6877,12 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H301">
         <v>30.843782999999998</v>
@@ -6910,12 +6891,12 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G302" s="1">
         <v>0.1464</v>
@@ -6927,12 +6908,12 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G303" s="1">
         <v>1.2</v>
@@ -6944,12 +6925,12 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H304">
         <v>30.055278000000001</v>
@@ -6958,12 +6939,12 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H305">
         <v>27.887751999999999</v>
@@ -6972,12 +6953,12 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H306">
         <v>30.016791999999999</v>
@@ -6986,7 +6967,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>305</v>
       </c>
@@ -7015,12 +6996,12 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D308" s="1">
         <v>1.6</v>
@@ -7041,12 +7022,12 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G309" s="1">
         <v>0.48659999999999998</v>
@@ -7058,12 +7039,12 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G310" s="1">
         <v>0.25929999999999997</v>
@@ -7075,12 +7056,12 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G311" s="1">
         <v>1.1000000000000001</v>
@@ -7092,12 +7073,12 @@
         <v>104.91249000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H312">
         <v>26.589704000000001</v>
@@ -7106,12 +7087,12 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H313">
         <v>26.260615999999999</v>
@@ -7120,12 +7101,12 @@
         <v>107.5284</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G314" s="1">
         <v>0.63819999999999999</v>
@@ -7137,12 +7118,12 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G315" s="1">
         <v>0.5796</v>
@@ -7154,12 +7135,12 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G316" s="1">
         <v>0.24</v>
@@ -7171,12 +7152,12 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D317" s="1">
         <v>3.2650000000000001</v>
@@ -7191,12 +7172,12 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H318">
         <v>25.496407000000001</v>
@@ -7205,12 +7186,12 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G319" s="1">
         <v>0.41060000000000002</v>
@@ -7222,12 +7203,12 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H320">
         <v>26.860657</v>
@@ -7236,12 +7217,12 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H321">
         <v>25.612128999999999</v>
@@ -7250,12 +7231,12 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H322">
         <v>22.013601000000001</v>
@@ -7264,12 +7245,12 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E323" s="1">
         <v>2</v>
@@ -7287,12 +7268,12 @@
         <v>102.553557</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H324">
         <v>22.805626</v>
@@ -7301,12 +7282,12 @@
         <v>100.98349899999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H325">
         <v>23.890467999999998</v>
@@ -7315,12 +7296,12 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H326">
         <v>23.405995000000001</v>
@@ -7329,12 +7310,12 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H327">
         <v>25.051773000000001</v>
@@ -7343,12 +7324,12 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H328">
         <v>27.825185000000001</v>
@@ -7357,12 +7338,12 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H329">
         <v>27.344083000000001</v>
@@ -7371,12 +7352,12 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H330">
         <v>23.369996</v>
@@ -7385,12 +7366,12 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H331">
         <v>24.438010999999999</v>
@@ -7399,12 +7380,12 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H332">
         <v>25.823708</v>
@@ -7413,12 +7394,12 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D333" s="1">
         <v>6.5199999999999994E-2</v>
@@ -7433,12 +7414,12 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H334">
         <v>31.149622000000001</v>
@@ -7447,12 +7428,12 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H335">
         <v>29.243027000000001</v>
@@ -7461,12 +7442,12 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H336">
         <v>29.255583000000001</v>
@@ -7475,12 +7456,12 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H337">
         <v>29.673397000000001</v>
@@ -7489,12 +7470,12 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H338">
         <v>32.506866000000002</v>
@@ -7503,12 +7484,12 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H339">
         <v>29.661791000000001</v>
@@ -7520,5 +7501,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>